--- a/dataset/AIF_Data.xlsx
+++ b/dataset/AIF_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Databases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\.Random\Websites\ikigai\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF3AA46-82CE-4BED-A398-2A016A15212D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC7119E-D27A-4A7C-9BA5-8B8803F5F65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24814,16 +24814,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H1603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="54" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A271" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="25.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.109375" customWidth="1"/>
     <col min="5" max="5" width="120.21875" customWidth="1"/>
     <col min="6" max="6" width="41.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="142.44140625" customWidth="1"/>
+    <col min="7" max="7" width="60.33203125" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
